--- a/semester-work-1/bfs.xlsx
+++ b/semester-work-1/bfs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\timur\IdeaProjects\AaDS-general\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Timur\IdeaProjects\AaDS-general\semester-work-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5D1BEF-9F47-4320-9FC7-33B3A6FA721A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8533838-A9A6-44A2-A641-B73723D805EB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="trees" sheetId="1" r:id="rId1"/>
@@ -631,10 +631,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -765,309 +765,309 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>trees!$A$2:$A$101</c:f>
+              <c:f>trees!$E$2:$E$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>799</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>1199</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>1399</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>1599</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>1799</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>1999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100</c:v>
+                  <c:v>2199</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200</c:v>
+                  <c:v>2399</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300</c:v>
+                  <c:v>2599</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400</c:v>
+                  <c:v>2799</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500</c:v>
+                  <c:v>2999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600</c:v>
+                  <c:v>3199</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700</c:v>
+                  <c:v>3399</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800</c:v>
+                  <c:v>3599</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900</c:v>
+                  <c:v>3799</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000</c:v>
+                  <c:v>3999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2100</c:v>
+                  <c:v>4199</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2200</c:v>
+                  <c:v>4399</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2300</c:v>
+                  <c:v>4599</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2400</c:v>
+                  <c:v>4799</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2500</c:v>
+                  <c:v>4999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2600</c:v>
+                  <c:v>5199</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2700</c:v>
+                  <c:v>5399</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2800</c:v>
+                  <c:v>5599</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2900</c:v>
+                  <c:v>5799</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3000</c:v>
+                  <c:v>5999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3100</c:v>
+                  <c:v>6199</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3200</c:v>
+                  <c:v>6399</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3300</c:v>
+                  <c:v>6599</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3400</c:v>
+                  <c:v>6799</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3500</c:v>
+                  <c:v>6999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3600</c:v>
+                  <c:v>7199</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3700</c:v>
+                  <c:v>7399</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3800</c:v>
+                  <c:v>7599</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3900</c:v>
+                  <c:v>7799</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4000</c:v>
+                  <c:v>7999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4100</c:v>
+                  <c:v>8199</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4200</c:v>
+                  <c:v>8399</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4300</c:v>
+                  <c:v>8599</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4400</c:v>
+                  <c:v>8799</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4500</c:v>
+                  <c:v>8999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4600</c:v>
+                  <c:v>9199</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4700</c:v>
+                  <c:v>9399</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4800</c:v>
+                  <c:v>9599</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4900</c:v>
+                  <c:v>9799</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5000</c:v>
+                  <c:v>9999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5100</c:v>
+                  <c:v>10199</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5200</c:v>
+                  <c:v>10399</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5300</c:v>
+                  <c:v>10599</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5400</c:v>
+                  <c:v>10799</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5500</c:v>
+                  <c:v>10999</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5600</c:v>
+                  <c:v>11199</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5700</c:v>
+                  <c:v>11399</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5800</c:v>
+                  <c:v>11599</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5900</c:v>
+                  <c:v>11799</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6000</c:v>
+                  <c:v>11999</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6100</c:v>
+                  <c:v>12199</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6200</c:v>
+                  <c:v>12399</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6300</c:v>
+                  <c:v>12599</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6400</c:v>
+                  <c:v>12799</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6500</c:v>
+                  <c:v>12999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6600</c:v>
+                  <c:v>13199</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6700</c:v>
+                  <c:v>13399</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6800</c:v>
+                  <c:v>13599</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6900</c:v>
+                  <c:v>13799</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7000</c:v>
+                  <c:v>13999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7100</c:v>
+                  <c:v>14199</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7200</c:v>
+                  <c:v>14399</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7300</c:v>
+                  <c:v>14599</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7400</c:v>
+                  <c:v>14799</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7500</c:v>
+                  <c:v>14999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7600</c:v>
+                  <c:v>15199</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7700</c:v>
+                  <c:v>15399</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7800</c:v>
+                  <c:v>15599</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7900</c:v>
+                  <c:v>15799</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8000</c:v>
+                  <c:v>15999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8100</c:v>
+                  <c:v>16199</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8200</c:v>
+                  <c:v>16399</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8300</c:v>
+                  <c:v>16599</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8400</c:v>
+                  <c:v>16799</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8500</c:v>
+                  <c:v>16999</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8600</c:v>
+                  <c:v>17199</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8700</c:v>
+                  <c:v>17399</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8800</c:v>
+                  <c:v>17599</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8900</c:v>
+                  <c:v>17799</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9000</c:v>
+                  <c:v>17999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9100</c:v>
+                  <c:v>18199</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9200</c:v>
+                  <c:v>18399</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9300</c:v>
+                  <c:v>18599</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9400</c:v>
+                  <c:v>18799</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9500</c:v>
+                  <c:v>18999</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9600</c:v>
+                  <c:v>19199</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9700</c:v>
+                  <c:v>19399</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9800</c:v>
+                  <c:v>19599</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9900</c:v>
+                  <c:v>19799</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>10000</c:v>
+                  <c:v>19999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1403,7 +1403,7 @@
         <c:axId val="355938608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10000"/>
+          <c:max val="20000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1444,6 +1444,19 @@
                   <a:rPr lang="ru-RU"/>
                   <a:t>Количество вершин</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>+</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> количество рёбер</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1833,6 +1846,315 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>trees!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>799</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1799</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3399</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3599</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4199</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4399</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4599</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4799</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5199</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5399</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5599</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5799</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6199</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6399</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6599</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6799</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7199</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7399</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7599</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7799</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8199</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8399</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8599</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8799</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9199</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9399</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9599</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9799</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10199</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10399</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10599</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>10799</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>11199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11399</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>11599</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>11799</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12199</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>12399</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>12599</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>12799</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>12999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13199</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>13399</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>13599</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13799</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13999</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14199</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>14399</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>14599</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>14799</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>14999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15199</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15399</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15599</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>15799</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>15999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>16199</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>16399</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>16599</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>16799</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>16999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17199</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>17399</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>17599</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>17799</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>17999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>18199</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>18399</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>18599</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>18799</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>18999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>19199</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>19399</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>19599</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>19799</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>19999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>trees!$D$2:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -2136,315 +2458,6 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>19998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>trees!$E$2:$E$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>399</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>599</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>799</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1199</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1399</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1599</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1799</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2199</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2399</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2599</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2799</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3199</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3399</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3599</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3799</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4199</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4399</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4599</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4799</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>4999</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5199</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5399</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5599</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5799</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6199</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6399</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6599</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6799</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7199</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7399</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7599</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7799</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8199</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8399</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>8599</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>8799</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>8999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9199</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9399</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>9599</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>9799</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>10199</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>10399</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>10599</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>10799</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>10999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>11199</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>11399</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>11599</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>11799</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>11999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>12199</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>12399</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>12599</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>12799</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>12999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>13199</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>13399</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>13599</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>13799</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>13999</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>14199</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>14399</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>14599</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>14799</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>14999</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>15199</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>15399</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>15599</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>15799</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>15999</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>16199</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>16399</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>16599</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>16799</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>16999</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>17199</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>17399</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>17599</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>17799</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>17999</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>18199</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>18399</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>18599</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>18799</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>18999</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>19199</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>19399</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>19599</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>19799</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>19999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2511,13 +2524,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Количество</a:t>
+                  <a:t>Количество вершин + количество рёбер</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> шагов</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2651,11 +2659,8 @@
                   <a:rPr lang="ru-RU" sz="1050" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Сумма вершин и рёбер</a:t>
+                  <a:t>Количество шагов</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="500">
-                  <a:effectLst/>
-                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2947,309 +2952,309 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>medium!$A$2:$A$101</c:f>
+              <c:f>medium!$E$2:$E$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100</c:v>
+                  <c:v>12100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200</c:v>
+                  <c:v>13200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300</c:v>
+                  <c:v>14300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400</c:v>
+                  <c:v>15400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500</c:v>
+                  <c:v>16500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600</c:v>
+                  <c:v>17600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700</c:v>
+                  <c:v>18700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800</c:v>
+                  <c:v>19800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900</c:v>
+                  <c:v>20900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2100</c:v>
+                  <c:v>25200</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2200</c:v>
+                  <c:v>26400</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2300</c:v>
+                  <c:v>27600</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2400</c:v>
+                  <c:v>28800</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2500</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2600</c:v>
+                  <c:v>31200</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2700</c:v>
+                  <c:v>32400</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2800</c:v>
+                  <c:v>33600</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2900</c:v>
+                  <c:v>34800</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3000</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3100</c:v>
+                  <c:v>37200</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3200</c:v>
+                  <c:v>38400</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3300</c:v>
+                  <c:v>39600</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3400</c:v>
+                  <c:v>40800</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3500</c:v>
+                  <c:v>42000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3600</c:v>
+                  <c:v>43200</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3700</c:v>
+                  <c:v>44400</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3800</c:v>
+                  <c:v>45600</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3900</c:v>
+                  <c:v>46800</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4000</c:v>
+                  <c:v>48000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4100</c:v>
+                  <c:v>53300</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4200</c:v>
+                  <c:v>54600</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4300</c:v>
+                  <c:v>55900</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4400</c:v>
+                  <c:v>57200</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4500</c:v>
+                  <c:v>58500</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4600</c:v>
+                  <c:v>59800</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4700</c:v>
+                  <c:v>61100</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4800</c:v>
+                  <c:v>62400</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4900</c:v>
+                  <c:v>63700</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5000</c:v>
+                  <c:v>65000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5100</c:v>
+                  <c:v>66300</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5200</c:v>
+                  <c:v>67600</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5300</c:v>
+                  <c:v>68900</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5400</c:v>
+                  <c:v>70200</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5500</c:v>
+                  <c:v>71500</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5600</c:v>
+                  <c:v>72800</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5700</c:v>
+                  <c:v>74100</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5800</c:v>
+                  <c:v>75400</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5900</c:v>
+                  <c:v>76700</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6000</c:v>
+                  <c:v>78000</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6100</c:v>
+                  <c:v>79300</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6200</c:v>
+                  <c:v>80600</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6300</c:v>
+                  <c:v>81900</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6400</c:v>
+                  <c:v>83200</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6500</c:v>
+                  <c:v>84500</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6600</c:v>
+                  <c:v>85800</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6700</c:v>
+                  <c:v>87100</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6800</c:v>
+                  <c:v>88400</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6900</c:v>
+                  <c:v>89700</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7000</c:v>
+                  <c:v>91000</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7100</c:v>
+                  <c:v>92300</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7200</c:v>
+                  <c:v>93600</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7300</c:v>
+                  <c:v>94900</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7400</c:v>
+                  <c:v>96200</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7500</c:v>
+                  <c:v>97500</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7600</c:v>
+                  <c:v>98800</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7700</c:v>
+                  <c:v>100100</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7800</c:v>
+                  <c:v>101400</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7900</c:v>
+                  <c:v>102700</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8000</c:v>
+                  <c:v>104000</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8100</c:v>
+                  <c:v>105300</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8200</c:v>
+                  <c:v>114800</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8300</c:v>
+                  <c:v>116200</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8400</c:v>
+                  <c:v>117600</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8500</c:v>
+                  <c:v>119000</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8600</c:v>
+                  <c:v>120400</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8700</c:v>
+                  <c:v>121800</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8800</c:v>
+                  <c:v>123200</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8900</c:v>
+                  <c:v>124600</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9000</c:v>
+                  <c:v>126000</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9100</c:v>
+                  <c:v>127400</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9200</c:v>
+                  <c:v>128800</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9300</c:v>
+                  <c:v>130200</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9400</c:v>
+                  <c:v>131600</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9500</c:v>
+                  <c:v>133000</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9600</c:v>
+                  <c:v>134400</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9700</c:v>
+                  <c:v>135800</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9800</c:v>
+                  <c:v>137200</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9900</c:v>
+                  <c:v>138600</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>10000</c:v>
+                  <c:v>140000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3585,7 +3590,7 @@
         <c:axId val="684687664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10000"/>
+          <c:max val="140000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3628,7 +3633,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> вершин</a:t>
+                  <a:t> вершин + количество рёбер</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3637,8 +3642,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.41955838369041082"/>
-              <c:y val="0.92909988944308008"/>
+              <c:x val="0.38696576261300669"/>
+              <c:y val="0.93424386766469003"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -4011,6 +4016,315 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>medium!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28800</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31200</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33600</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>34800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37200</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38400</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40800</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43200</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44400</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45600</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>46800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53300</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>54600</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>55900</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>57200</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>58500</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>59800</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>61100</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>62400</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>63700</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>65000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>66300</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>67600</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>68900</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>70200</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>71500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>72800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>74100</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>75400</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>76700</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>78000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>79300</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>80600</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>81900</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>83200</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>84500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>85800</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>87100</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>88400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>89700</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>91000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>92300</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>93600</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>94900</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>96200</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>97500</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>98800</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>100100</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>101400</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>102700</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>104000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>105300</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>114800</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>116200</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>117600</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>119000</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>120400</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>121800</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>123200</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>124600</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>126000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>127400</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>128800</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>130200</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>131600</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>133000</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>134400</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>135800</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>137200</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>138600</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>140000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>medium!$D$2:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -4314,315 +4628,6 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>259982</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>medium!$E$2:$E$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>700</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2700</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>13200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>17600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>18700</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>19800</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>20900</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>22000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>25200</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26400</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>27600</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>28800</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>30000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>31200</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>32400</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>33600</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>34800</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>36000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>37200</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>38400</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>39600</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>40800</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>42000</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43200</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>44400</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>45600</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>46800</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>48000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>53300</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>54600</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>55900</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>57200</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>58500</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>59800</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>61100</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>62400</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>63700</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>65000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>66300</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>67600</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>68900</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>70200</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>71500</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>72800</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>74100</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>75400</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>76700</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>78000</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>79300</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>80600</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>81900</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>83200</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>84500</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>85800</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>87100</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>88400</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>89700</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>91000</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>92300</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>93600</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>94900</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>96200</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>97500</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>98800</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>100100</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>101400</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>102700</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>104000</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>105300</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>114800</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>116200</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>117600</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>119000</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>120400</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>121800</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>123200</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>124600</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>126000</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>127400</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>128800</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>130200</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>131600</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>133000</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>134400</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>135800</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>137200</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>138600</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>140000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4649,8 +4654,7 @@
         <c:axId val="275789039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="270000"/>
-          <c:min val="0"/>
+          <c:max val="140000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4693,9 +4697,8 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> шагов</a:t>
+                  <a:t> вершин + количество рёбер</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4827,7 +4830,7 @@
                   <a:rPr lang="ru-RU" sz="1050" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Сумма вершин и рёбер</a:t>
+                  <a:t>Количество шагов</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5124,309 +5127,309 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>complete!$A$2:$A$101</c:f>
+              <c:f>complete!$E$2:$E$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>10100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>40200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300</c:v>
+                  <c:v>90300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400</c:v>
+                  <c:v>160400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500</c:v>
+                  <c:v>250500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600</c:v>
+                  <c:v>360600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700</c:v>
+                  <c:v>490700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800</c:v>
+                  <c:v>640800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900</c:v>
+                  <c:v>810900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>1001000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100</c:v>
+                  <c:v>1211100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200</c:v>
+                  <c:v>1441200</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300</c:v>
+                  <c:v>1691300</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400</c:v>
+                  <c:v>1961400</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500</c:v>
+                  <c:v>2251500</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600</c:v>
+                  <c:v>2561600</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700</c:v>
+                  <c:v>2891700</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800</c:v>
+                  <c:v>3241800</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900</c:v>
+                  <c:v>3611900</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000</c:v>
+                  <c:v>4002000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2100</c:v>
+                  <c:v>4412100</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2200</c:v>
+                  <c:v>4842200</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2300</c:v>
+                  <c:v>5292300</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2400</c:v>
+                  <c:v>5762400</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2500</c:v>
+                  <c:v>6252500</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2600</c:v>
+                  <c:v>6762600</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2700</c:v>
+                  <c:v>7292700</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2800</c:v>
+                  <c:v>7842800</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2900</c:v>
+                  <c:v>8412900</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3000</c:v>
+                  <c:v>9003000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3100</c:v>
+                  <c:v>9613100</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3200</c:v>
+                  <c:v>10243200</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3300</c:v>
+                  <c:v>10893300</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3400</c:v>
+                  <c:v>11563400</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3500</c:v>
+                  <c:v>12253500</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3600</c:v>
+                  <c:v>12963600</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3700</c:v>
+                  <c:v>13693700</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3800</c:v>
+                  <c:v>14443800</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3900</c:v>
+                  <c:v>15213900</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4000</c:v>
+                  <c:v>16004000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4100</c:v>
+                  <c:v>16814100</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4200</c:v>
+                  <c:v>17644200</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4300</c:v>
+                  <c:v>18494300</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4400</c:v>
+                  <c:v>19364400</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4500</c:v>
+                  <c:v>20254500</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4600</c:v>
+                  <c:v>21164600</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4700</c:v>
+                  <c:v>22094700</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4800</c:v>
+                  <c:v>23044800</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4900</c:v>
+                  <c:v>24014900</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5000</c:v>
+                  <c:v>25005000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5100</c:v>
+                  <c:v>26015100</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5200</c:v>
+                  <c:v>27045200</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5300</c:v>
+                  <c:v>28095300</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5400</c:v>
+                  <c:v>29165400</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5500</c:v>
+                  <c:v>30255500</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5600</c:v>
+                  <c:v>31365600</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5700</c:v>
+                  <c:v>32495700</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5800</c:v>
+                  <c:v>33645800</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5900</c:v>
+                  <c:v>34815900</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6000</c:v>
+                  <c:v>36006000</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6100</c:v>
+                  <c:v>37216100</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6200</c:v>
+                  <c:v>38446200</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6300</c:v>
+                  <c:v>39696300</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6400</c:v>
+                  <c:v>40966400</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6500</c:v>
+                  <c:v>42256500</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6600</c:v>
+                  <c:v>43566600</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6700</c:v>
+                  <c:v>44896700</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6800</c:v>
+                  <c:v>46246800</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6900</c:v>
+                  <c:v>47616900</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7000</c:v>
+                  <c:v>49007000</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7100</c:v>
+                  <c:v>50417100</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7200</c:v>
+                  <c:v>51847200</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7300</c:v>
+                  <c:v>53297300</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7400</c:v>
+                  <c:v>54767400</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7500</c:v>
+                  <c:v>56257500</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7600</c:v>
+                  <c:v>57767600</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7700</c:v>
+                  <c:v>59297700</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7800</c:v>
+                  <c:v>60847800</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7900</c:v>
+                  <c:v>62417900</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8000</c:v>
+                  <c:v>64008000</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8100</c:v>
+                  <c:v>65618100</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8200</c:v>
+                  <c:v>67248200</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8300</c:v>
+                  <c:v>68898300</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8400</c:v>
+                  <c:v>70568400</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8500</c:v>
+                  <c:v>72258500</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8600</c:v>
+                  <c:v>73968600</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8700</c:v>
+                  <c:v>75698700</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8800</c:v>
+                  <c:v>77448800</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8900</c:v>
+                  <c:v>79218900</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9000</c:v>
+                  <c:v>81009000</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9100</c:v>
+                  <c:v>82819100</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9200</c:v>
+                  <c:v>84649200</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9300</c:v>
+                  <c:v>86499300</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9400</c:v>
+                  <c:v>88369400</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9500</c:v>
+                  <c:v>90259500</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9600</c:v>
+                  <c:v>92169600</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9700</c:v>
+                  <c:v>94099700</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9800</c:v>
+                  <c:v>96049800</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9900</c:v>
+                  <c:v>98019900</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>10000</c:v>
+                  <c:v>100010000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5762,7 +5765,8 @@
         <c:axId val="684687664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10000"/>
+          <c:max val="101000000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5805,7 +5809,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> вершин</a:t>
+                  <a:t> вершин + количество рёбер</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6182,6 +6186,315 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
+              <c:f>complete!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>10100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>160400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>360600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>490700</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>640800</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>810900</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1001000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1211100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1441200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1691300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1961400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2251500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2561600</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2891700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3241800</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3611900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4002000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4412100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4842200</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5292300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5762400</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6252500</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6762600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7292700</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7842800</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8412900</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9003000</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9613100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10243200</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10893300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11563400</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12253500</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12963600</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13693700</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14443800</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15213900</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16004000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16814100</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17644200</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18494300</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19364400</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20254500</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21164600</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>22094700</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23044800</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24014900</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25005000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>26015100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27045200</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>28095300</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>29165400</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30255500</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>31365600</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>32495700</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>33645800</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>34815900</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36006000</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>37216100</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>38446200</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>39696300</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>40966400</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42256500</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>43566600</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44896700</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>46246800</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>47616900</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>49007000</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>50417100</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>51847200</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>53297300</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>54767400</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>56257500</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>57767600</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>59297700</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>60847800</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>62417900</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>64008000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>65618100</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>67248200</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>68898300</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>70568400</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>72258500</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>73968600</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>75698700</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>77448800</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>79218900</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>81009000</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>82819100</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>84649200</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>86499300</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>88369400</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>90259500</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>92169600</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>94099700</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>96049800</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98019900</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100010000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>complete!$D$2:$D$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -6485,315 +6798,6 @@
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>199980222</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>complete!$E$2:$E$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>10100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40200</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>90300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>160400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>250500</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>360600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>490700</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>640800</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>810900</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1001000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1211100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1441200</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1691300</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1961400</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2251500</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2561600</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2891700</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3241800</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3611900</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4002000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4412100</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>4842200</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5292300</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5762400</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6252500</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6762600</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7292700</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7842800</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8412900</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9003000</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9613100</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10243200</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10893300</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>11563400</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>12253500</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>12963600</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>13693700</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>14443800</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>15213900</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>16004000</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>16814100</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>17644200</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>18494300</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>19364400</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>20254500</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>21164600</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>22094700</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>23044800</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>24014900</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>25005000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>26015100</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>27045200</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>28095300</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>29165400</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>30255500</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>31365600</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>32495700</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>33645800</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>34815900</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>36006000</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>37216100</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>38446200</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>39696300</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>40966400</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>42256500</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>43566600</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>44896700</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>46246800</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>47616900</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>49007000</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>50417100</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>51847200</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>53297300</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>54767400</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>56257500</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>57767600</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>59297700</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>60847800</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>62417900</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>64008000</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>65618100</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>67248200</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>68898300</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>70568400</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>72258500</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>73968600</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>75698700</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>77448800</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>79218900</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>81009000</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>82819100</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>84649200</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>86499300</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>88369400</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>90259500</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>92169600</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>94099700</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>96049800</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98019900</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100010000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6820,8 +6824,7 @@
         <c:axId val="275789039"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="210000000"/>
-          <c:min val="0"/>
+          <c:max val="100000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6860,13 +6863,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Количество</a:t>
+                  <a:t>Количество вершин + количество рёбер</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="ru-RU" baseline="0"/>
-                  <a:t> шагов</a:t>
-                </a:r>
-                <a:endParaRPr lang="ru-RU"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -6944,7 +6942,6 @@
         <c:axId val="1552864783"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="110000000.00000001"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6997,12 +6994,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1050" b="0" i="0" baseline="0">
+                  <a:rPr lang="ru-RU" sz="1050">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>Сумма вершин и рёбер</a:t>
+                  <a:t>Количество</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="500">
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1050" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> шагов</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1050">
                   <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
@@ -10767,7 +10770,7 @@
     <tableColumn id="2" xr3:uid="{78BD5CEA-BAED-4C25-BE52-A9765F61F076}" uniqueName="2" name="Edges" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{141A8D56-412D-4E74-A699-E233AFF3CFFF}" uniqueName="3" name="Time(ms)" queryTableFieldId="3" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{18435C4F-D347-45E5-9E22-D803EE8FD94F}" uniqueName="4" name="Steps" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{74A978DA-4B8A-46D1-ABAF-F555BA5DB362}" uniqueName="5" name="V+E" queryTableFieldId="5" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{74A978DA-4B8A-46D1-ABAF-F555BA5DB362}" uniqueName="5" name="V+E" queryTableFieldId="5" dataDxfId="4">
       <calculatedColumnFormula>trees[[#This Row],[Vertices]]+trees[[#This Row],[Edges]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10781,7 +10784,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{44CE4384-5E72-461B-B7B9-26E55C3D4B49}" uniqueName="1" name="Vertices" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{73B68C10-3314-467C-8859-2478649B5517}" uniqueName="2" name="Edges" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{4CAA5F64-7D80-44E6-AF1A-20EBC1BEBC57}" uniqueName="3" name="Time(ms)" queryTableFieldId="3" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{4CAA5F64-7D80-44E6-AF1A-20EBC1BEBC57}" uniqueName="3" name="Time(ms)" queryTableFieldId="3" dataDxfId="3"/>
     <tableColumn id="4" xr3:uid="{9A096CF1-4A3A-4663-982F-ABF473F56F8D}" uniqueName="4" name="Steps" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{4C098F0B-A3F6-494C-9F3C-C3E770EC7A40}" uniqueName="5" name="V+E" queryTableFieldId="5" dataDxfId="2">
       <calculatedColumnFormula>logCompleteGraph__26[[#This Row],[Vertices]]+logCompleteGraph__26[[#This Row],[Edges]]</calculatedColumnFormula>
@@ -10797,7 +10800,7 @@
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{90E34108-51CA-4834-A8BC-D38D21C4EEDF}" uniqueName="1" name="Vertices" queryTableFieldId="1"/>
     <tableColumn id="2" xr3:uid="{56612B5B-2750-4A25-B9B6-EE71A0B0506E}" uniqueName="2" name="Edges" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{C18CB84C-1D0D-4A67-AD05-EB6C35B29839}" uniqueName="3" name="Time(ms)" queryTableFieldId="3" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C18CB84C-1D0D-4A67-AD05-EB6C35B29839}" uniqueName="3" name="Time(ms)" queryTableFieldId="3" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{679350E5-03BE-4218-A5A2-8EDADB2FD132}" uniqueName="4" name="Steps" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{07851154-E215-462C-A303-3975DFD2C578}" uniqueName="5" name="V+E" queryTableFieldId="5" dataDxfId="0">
       <calculatedColumnFormula>completeGraph[[#This Row],[Vertices]]+completeGraph[[#This Row],[Edges]]</calculatedColumnFormula>
@@ -11106,16 +11109,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11132,7 +11135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -11150,7 +11153,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>200</v>
       </c>
@@ -11168,7 +11171,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>300</v>
       </c>
@@ -11186,7 +11189,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>400</v>
       </c>
@@ -11204,7 +11207,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>500</v>
       </c>
@@ -11222,7 +11225,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>600</v>
       </c>
@@ -11240,7 +11243,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>700</v>
       </c>
@@ -11258,7 +11261,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>800</v>
       </c>
@@ -11276,7 +11279,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>900</v>
       </c>
@@ -11294,7 +11297,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -11312,7 +11315,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1100</v>
       </c>
@@ -11330,7 +11333,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1200</v>
       </c>
@@ -11348,7 +11351,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1300</v>
       </c>
@@ -11366,7 +11369,7 @@
         <v>2599</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1400</v>
       </c>
@@ -11384,7 +11387,7 @@
         <v>2799</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1500</v>
       </c>
@@ -11402,7 +11405,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -11420,7 +11423,7 @@
         <v>3199</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1700</v>
       </c>
@@ -11438,7 +11441,7 @@
         <v>3399</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1800</v>
       </c>
@@ -11456,7 +11459,7 @@
         <v>3599</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1900</v>
       </c>
@@ -11474,7 +11477,7 @@
         <v>3799</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -11492,7 +11495,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2100</v>
       </c>
@@ -11510,7 +11513,7 @@
         <v>4199</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2200</v>
       </c>
@@ -11528,7 +11531,7 @@
         <v>4399</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2300</v>
       </c>
@@ -11546,7 +11549,7 @@
         <v>4599</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2400</v>
       </c>
@@ -11564,7 +11567,7 @@
         <v>4799</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2500</v>
       </c>
@@ -11582,7 +11585,7 @@
         <v>4999</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2600</v>
       </c>
@@ -11600,7 +11603,7 @@
         <v>5199</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2700</v>
       </c>
@@ -11618,7 +11621,7 @@
         <v>5399</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2800</v>
       </c>
@@ -11636,7 +11639,7 @@
         <v>5599</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2900</v>
       </c>
@@ -11654,7 +11657,7 @@
         <v>5799</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -11672,7 +11675,7 @@
         <v>5999</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3100</v>
       </c>
@@ -11690,7 +11693,7 @@
         <v>6199</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3200</v>
       </c>
@@ -11708,7 +11711,7 @@
         <v>6399</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3300</v>
       </c>
@@ -11726,7 +11729,7 @@
         <v>6599</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3400</v>
       </c>
@@ -11744,7 +11747,7 @@
         <v>6799</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3500</v>
       </c>
@@ -11762,7 +11765,7 @@
         <v>6999</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3600</v>
       </c>
@@ -11780,7 +11783,7 @@
         <v>7199</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3700</v>
       </c>
@@ -11798,7 +11801,7 @@
         <v>7399</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3800</v>
       </c>
@@ -11816,7 +11819,7 @@
         <v>7599</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3900</v>
       </c>
@@ -11834,7 +11837,7 @@
         <v>7799</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4000</v>
       </c>
@@ -11852,7 +11855,7 @@
         <v>7999</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4100</v>
       </c>
@@ -11870,7 +11873,7 @@
         <v>8199</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4200</v>
       </c>
@@ -11888,7 +11891,7 @@
         <v>8399</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4300</v>
       </c>
@@ -11906,7 +11909,7 @@
         <v>8599</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4400</v>
       </c>
@@ -11924,7 +11927,7 @@
         <v>8799</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4500</v>
       </c>
@@ -11942,7 +11945,7 @@
         <v>8999</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4600</v>
       </c>
@@ -11960,7 +11963,7 @@
         <v>9199</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4700</v>
       </c>
@@ -11978,7 +11981,7 @@
         <v>9399</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4800</v>
       </c>
@@ -11996,7 +11999,7 @@
         <v>9599</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4900</v>
       </c>
@@ -12014,7 +12017,7 @@
         <v>9799</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5000</v>
       </c>
@@ -12032,7 +12035,7 @@
         <v>9999</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5100</v>
       </c>
@@ -12050,7 +12053,7 @@
         <v>10199</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5200</v>
       </c>
@@ -12068,7 +12071,7 @@
         <v>10399</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5300</v>
       </c>
@@ -12086,7 +12089,7 @@
         <v>10599</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5400</v>
       </c>
@@ -12104,7 +12107,7 @@
         <v>10799</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5500</v>
       </c>
@@ -12122,7 +12125,7 @@
         <v>10999</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5600</v>
       </c>
@@ -12140,7 +12143,7 @@
         <v>11199</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5700</v>
       </c>
@@ -12158,7 +12161,7 @@
         <v>11399</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5800</v>
       </c>
@@ -12176,7 +12179,7 @@
         <v>11599</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5900</v>
       </c>
@@ -12194,7 +12197,7 @@
         <v>11799</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6000</v>
       </c>
@@ -12212,7 +12215,7 @@
         <v>11999</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6100</v>
       </c>
@@ -12230,7 +12233,7 @@
         <v>12199</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6200</v>
       </c>
@@ -12248,7 +12251,7 @@
         <v>12399</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6300</v>
       </c>
@@ -12266,7 +12269,7 @@
         <v>12599</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6400</v>
       </c>
@@ -12284,7 +12287,7 @@
         <v>12799</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6500</v>
       </c>
@@ -12302,7 +12305,7 @@
         <v>12999</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6600</v>
       </c>
@@ -12320,7 +12323,7 @@
         <v>13199</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6700</v>
       </c>
@@ -12338,7 +12341,7 @@
         <v>13399</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6800</v>
       </c>
@@ -12356,7 +12359,7 @@
         <v>13599</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6900</v>
       </c>
@@ -12374,7 +12377,7 @@
         <v>13799</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>7000</v>
       </c>
@@ -12392,7 +12395,7 @@
         <v>13999</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>7100</v>
       </c>
@@ -12410,7 +12413,7 @@
         <v>14199</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7200</v>
       </c>
@@ -12428,7 +12431,7 @@
         <v>14399</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7300</v>
       </c>
@@ -12446,7 +12449,7 @@
         <v>14599</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7400</v>
       </c>
@@ -12464,7 +12467,7 @@
         <v>14799</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7500</v>
       </c>
@@ -12482,7 +12485,7 @@
         <v>14999</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7600</v>
       </c>
@@ -12500,7 +12503,7 @@
         <v>15199</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7700</v>
       </c>
@@ -12518,7 +12521,7 @@
         <v>15399</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>7800</v>
       </c>
@@ -12536,7 +12539,7 @@
         <v>15599</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7900</v>
       </c>
@@ -12554,7 +12557,7 @@
         <v>15799</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>8000</v>
       </c>
@@ -12572,7 +12575,7 @@
         <v>15999</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>8100</v>
       </c>
@@ -12590,7 +12593,7 @@
         <v>16199</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>8200</v>
       </c>
@@ -12608,7 +12611,7 @@
         <v>16399</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>8300</v>
       </c>
@@ -12626,7 +12629,7 @@
         <v>16599</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>8400</v>
       </c>
@@ -12644,7 +12647,7 @@
         <v>16799</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>8500</v>
       </c>
@@ -12662,7 +12665,7 @@
         <v>16999</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>8600</v>
       </c>
@@ -12680,7 +12683,7 @@
         <v>17199</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>8700</v>
       </c>
@@ -12698,7 +12701,7 @@
         <v>17399</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8800</v>
       </c>
@@ -12716,7 +12719,7 @@
         <v>17599</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8900</v>
       </c>
@@ -12734,7 +12737,7 @@
         <v>17799</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>9000</v>
       </c>
@@ -12752,7 +12755,7 @@
         <v>17999</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>9100</v>
       </c>
@@ -12770,7 +12773,7 @@
         <v>18199</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9200</v>
       </c>
@@ -12788,7 +12791,7 @@
         <v>18399</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>9300</v>
       </c>
@@ -12806,7 +12809,7 @@
         <v>18599</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>9400</v>
       </c>
@@ -12824,7 +12827,7 @@
         <v>18799</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9500</v>
       </c>
@@ -12842,7 +12845,7 @@
         <v>18999</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>9600</v>
       </c>
@@ -12860,7 +12863,7 @@
         <v>19199</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9700</v>
       </c>
@@ -12878,7 +12881,7 @@
         <v>19399</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>9800</v>
       </c>
@@ -12896,7 +12899,7 @@
         <v>19599</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9900</v>
       </c>
@@ -12914,7 +12917,7 @@
         <v>19799</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10000</v>
       </c>
@@ -12946,19 +12949,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12975,7 +12978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -12993,7 +12996,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>200</v>
       </c>
@@ -13011,7 +13014,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>300</v>
       </c>
@@ -13029,7 +13032,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>400</v>
       </c>
@@ -13047,7 +13050,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>500</v>
       </c>
@@ -13065,7 +13068,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>600</v>
       </c>
@@ -13083,7 +13086,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>700</v>
       </c>
@@ -13101,7 +13104,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>800</v>
       </c>
@@ -13119,7 +13122,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>900</v>
       </c>
@@ -13137,7 +13140,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -13155,7 +13158,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1100</v>
       </c>
@@ -13173,7 +13176,7 @@
         <v>12100</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1200</v>
       </c>
@@ -13191,7 +13194,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1300</v>
       </c>
@@ -13209,7 +13212,7 @@
         <v>14300</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1400</v>
       </c>
@@ -13227,7 +13230,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1500</v>
       </c>
@@ -13245,7 +13248,7 @@
         <v>16500</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -13263,7 +13266,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1700</v>
       </c>
@@ -13281,7 +13284,7 @@
         <v>18700</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1800</v>
       </c>
@@ -13299,7 +13302,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1900</v>
       </c>
@@ -13317,7 +13320,7 @@
         <v>20900</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -13335,7 +13338,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2100</v>
       </c>
@@ -13353,7 +13356,7 @@
         <v>25200</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2200</v>
       </c>
@@ -13371,7 +13374,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2300</v>
       </c>
@@ -13389,7 +13392,7 @@
         <v>27600</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2400</v>
       </c>
@@ -13407,7 +13410,7 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2500</v>
       </c>
@@ -13425,7 +13428,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2600</v>
       </c>
@@ -13443,7 +13446,7 @@
         <v>31200</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2700</v>
       </c>
@@ -13461,7 +13464,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2800</v>
       </c>
@@ -13479,7 +13482,7 @@
         <v>33600</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2900</v>
       </c>
@@ -13497,7 +13500,7 @@
         <v>34800</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -13515,7 +13518,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3100</v>
       </c>
@@ -13533,7 +13536,7 @@
         <v>37200</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3200</v>
       </c>
@@ -13551,7 +13554,7 @@
         <v>38400</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3300</v>
       </c>
@@ -13569,7 +13572,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3400</v>
       </c>
@@ -13587,7 +13590,7 @@
         <v>40800</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3500</v>
       </c>
@@ -13605,7 +13608,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3600</v>
       </c>
@@ -13623,7 +13626,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3700</v>
       </c>
@@ -13641,7 +13644,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3800</v>
       </c>
@@ -13659,7 +13662,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3900</v>
       </c>
@@ -13677,7 +13680,7 @@
         <v>46800</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4000</v>
       </c>
@@ -13695,7 +13698,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4100</v>
       </c>
@@ -13713,7 +13716,7 @@
         <v>53300</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4200</v>
       </c>
@@ -13731,7 +13734,7 @@
         <v>54600</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4300</v>
       </c>
@@ -13749,7 +13752,7 @@
         <v>55900</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4400</v>
       </c>
@@ -13767,7 +13770,7 @@
         <v>57200</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4500</v>
       </c>
@@ -13785,7 +13788,7 @@
         <v>58500</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4600</v>
       </c>
@@ -13803,7 +13806,7 @@
         <v>59800</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4700</v>
       </c>
@@ -13821,7 +13824,7 @@
         <v>61100</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4800</v>
       </c>
@@ -13839,7 +13842,7 @@
         <v>62400</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4900</v>
       </c>
@@ -13857,7 +13860,7 @@
         <v>63700</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5000</v>
       </c>
@@ -13875,7 +13878,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5100</v>
       </c>
@@ -13893,7 +13896,7 @@
         <v>66300</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5200</v>
       </c>
@@ -13911,7 +13914,7 @@
         <v>67600</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5300</v>
       </c>
@@ -13929,7 +13932,7 @@
         <v>68900</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5400</v>
       </c>
@@ -13947,7 +13950,7 @@
         <v>70200</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5500</v>
       </c>
@@ -13965,7 +13968,7 @@
         <v>71500</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5600</v>
       </c>
@@ -13983,7 +13986,7 @@
         <v>72800</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5700</v>
       </c>
@@ -14001,7 +14004,7 @@
         <v>74100</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5800</v>
       </c>
@@ -14019,7 +14022,7 @@
         <v>75400</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5900</v>
       </c>
@@ -14037,7 +14040,7 @@
         <v>76700</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6000</v>
       </c>
@@ -14055,7 +14058,7 @@
         <v>78000</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6100</v>
       </c>
@@ -14073,7 +14076,7 @@
         <v>79300</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6200</v>
       </c>
@@ -14091,7 +14094,7 @@
         <v>80600</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6300</v>
       </c>
@@ -14109,7 +14112,7 @@
         <v>81900</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6400</v>
       </c>
@@ -14127,7 +14130,7 @@
         <v>83200</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6500</v>
       </c>
@@ -14145,7 +14148,7 @@
         <v>84500</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6600</v>
       </c>
@@ -14163,7 +14166,7 @@
         <v>85800</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6700</v>
       </c>
@@ -14181,7 +14184,7 @@
         <v>87100</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6800</v>
       </c>
@@ -14199,7 +14202,7 @@
         <v>88400</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6900</v>
       </c>
@@ -14217,7 +14220,7 @@
         <v>89700</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>7000</v>
       </c>
@@ -14235,7 +14238,7 @@
         <v>91000</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>7100</v>
       </c>
@@ -14253,7 +14256,7 @@
         <v>92300</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7200</v>
       </c>
@@ -14271,7 +14274,7 @@
         <v>93600</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7300</v>
       </c>
@@ -14289,7 +14292,7 @@
         <v>94900</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7400</v>
       </c>
@@ -14307,7 +14310,7 @@
         <v>96200</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7500</v>
       </c>
@@ -14325,7 +14328,7 @@
         <v>97500</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7600</v>
       </c>
@@ -14343,7 +14346,7 @@
         <v>98800</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7700</v>
       </c>
@@ -14361,7 +14364,7 @@
         <v>100100</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>7800</v>
       </c>
@@ -14379,7 +14382,7 @@
         <v>101400</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7900</v>
       </c>
@@ -14397,7 +14400,7 @@
         <v>102700</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>8000</v>
       </c>
@@ -14415,7 +14418,7 @@
         <v>104000</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>8100</v>
       </c>
@@ -14433,7 +14436,7 @@
         <v>105300</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>8200</v>
       </c>
@@ -14451,7 +14454,7 @@
         <v>114800</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>8300</v>
       </c>
@@ -14469,7 +14472,7 @@
         <v>116200</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>8400</v>
       </c>
@@ -14487,7 +14490,7 @@
         <v>117600</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>8500</v>
       </c>
@@ -14505,7 +14508,7 @@
         <v>119000</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>8600</v>
       </c>
@@ -14523,7 +14526,7 @@
         <v>120400</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>8700</v>
       </c>
@@ -14541,7 +14544,7 @@
         <v>121800</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8800</v>
       </c>
@@ -14559,7 +14562,7 @@
         <v>123200</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8900</v>
       </c>
@@ -14577,7 +14580,7 @@
         <v>124600</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>9000</v>
       </c>
@@ -14595,7 +14598,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>9100</v>
       </c>
@@ -14613,7 +14616,7 @@
         <v>127400</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9200</v>
       </c>
@@ -14631,7 +14634,7 @@
         <v>128800</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>9300</v>
       </c>
@@ -14649,7 +14652,7 @@
         <v>130200</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>9400</v>
       </c>
@@ -14667,7 +14670,7 @@
         <v>131600</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9500</v>
       </c>
@@ -14685,7 +14688,7 @@
         <v>133000</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>9600</v>
       </c>
@@ -14703,7 +14706,7 @@
         <v>134400</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9700</v>
       </c>
@@ -14721,7 +14724,7 @@
         <v>135800</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>9800</v>
       </c>
@@ -14739,7 +14742,7 @@
         <v>137200</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9900</v>
       </c>
@@ -14757,7 +14760,7 @@
         <v>138600</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10000</v>
       </c>
@@ -14789,19 +14792,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CD3D30-B3A9-4234-850A-F5F753FE793D}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14818,7 +14821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -14836,7 +14839,7 @@
         <v>10100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>200</v>
       </c>
@@ -14854,7 +14857,7 @@
         <v>40200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>300</v>
       </c>
@@ -14872,7 +14875,7 @@
         <v>90300</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>400</v>
       </c>
@@ -14890,7 +14893,7 @@
         <v>160400</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>500</v>
       </c>
@@ -14908,7 +14911,7 @@
         <v>250500</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>600</v>
       </c>
@@ -14926,7 +14929,7 @@
         <v>360600</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>700</v>
       </c>
@@ -14944,7 +14947,7 @@
         <v>490700</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>800</v>
       </c>
@@ -14962,7 +14965,7 @@
         <v>640800</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>900</v>
       </c>
@@ -14980,7 +14983,7 @@
         <v>810900</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1000</v>
       </c>
@@ -14998,7 +15001,7 @@
         <v>1001000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1100</v>
       </c>
@@ -15016,7 +15019,7 @@
         <v>1211100</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1200</v>
       </c>
@@ -15034,7 +15037,7 @@
         <v>1441200</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1300</v>
       </c>
@@ -15052,7 +15055,7 @@
         <v>1691300</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1400</v>
       </c>
@@ -15070,7 +15073,7 @@
         <v>1961400</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1500</v>
       </c>
@@ -15088,7 +15091,7 @@
         <v>2251500</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -15106,7 +15109,7 @@
         <v>2561600</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1700</v>
       </c>
@@ -15124,7 +15127,7 @@
         <v>2891700</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1800</v>
       </c>
@@ -15142,7 +15145,7 @@
         <v>3241800</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1900</v>
       </c>
@@ -15160,7 +15163,7 @@
         <v>3611900</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2000</v>
       </c>
@@ -15178,7 +15181,7 @@
         <v>4002000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2100</v>
       </c>
@@ -15196,7 +15199,7 @@
         <v>4412100</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2200</v>
       </c>
@@ -15214,7 +15217,7 @@
         <v>4842200</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2300</v>
       </c>
@@ -15232,7 +15235,7 @@
         <v>5292300</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2400</v>
       </c>
@@ -15250,7 +15253,7 @@
         <v>5762400</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2500</v>
       </c>
@@ -15268,7 +15271,7 @@
         <v>6252500</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2600</v>
       </c>
@@ -15286,7 +15289,7 @@
         <v>6762600</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2700</v>
       </c>
@@ -15304,7 +15307,7 @@
         <v>7292700</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2800</v>
       </c>
@@ -15322,7 +15325,7 @@
         <v>7842800</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2900</v>
       </c>
@@ -15340,7 +15343,7 @@
         <v>8412900</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3000</v>
       </c>
@@ -15358,7 +15361,7 @@
         <v>9003000</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3100</v>
       </c>
@@ -15376,7 +15379,7 @@
         <v>9613100</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3200</v>
       </c>
@@ -15394,7 +15397,7 @@
         <v>10243200</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3300</v>
       </c>
@@ -15412,7 +15415,7 @@
         <v>10893300</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3400</v>
       </c>
@@ -15430,7 +15433,7 @@
         <v>11563400</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3500</v>
       </c>
@@ -15448,7 +15451,7 @@
         <v>12253500</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3600</v>
       </c>
@@ -15466,7 +15469,7 @@
         <v>12963600</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3700</v>
       </c>
@@ -15484,7 +15487,7 @@
         <v>13693700</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3800</v>
       </c>
@@ -15502,7 +15505,7 @@
         <v>14443800</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3900</v>
       </c>
@@ -15520,7 +15523,7 @@
         <v>15213900</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>4000</v>
       </c>
@@ -15538,7 +15541,7 @@
         <v>16004000</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4100</v>
       </c>
@@ -15556,7 +15559,7 @@
         <v>16814100</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4200</v>
       </c>
@@ -15574,7 +15577,7 @@
         <v>17644200</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4300</v>
       </c>
@@ -15592,7 +15595,7 @@
         <v>18494300</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4400</v>
       </c>
@@ -15610,7 +15613,7 @@
         <v>19364400</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4500</v>
       </c>
@@ -15628,7 +15631,7 @@
         <v>20254500</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4600</v>
       </c>
@@ -15646,7 +15649,7 @@
         <v>21164600</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4700</v>
       </c>
@@ -15664,7 +15667,7 @@
         <v>22094700</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4800</v>
       </c>
@@ -15682,7 +15685,7 @@
         <v>23044800</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4900</v>
       </c>
@@ -15700,7 +15703,7 @@
         <v>24014900</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5000</v>
       </c>
@@ -15718,7 +15721,7 @@
         <v>25005000</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5100</v>
       </c>
@@ -15736,7 +15739,7 @@
         <v>26015100</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5200</v>
       </c>
@@ -15754,7 +15757,7 @@
         <v>27045200</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5300</v>
       </c>
@@ -15772,7 +15775,7 @@
         <v>28095300</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5400</v>
       </c>
@@ -15790,7 +15793,7 @@
         <v>29165400</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5500</v>
       </c>
@@ -15808,7 +15811,7 @@
         <v>30255500</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5600</v>
       </c>
@@ -15826,7 +15829,7 @@
         <v>31365600</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5700</v>
       </c>
@@ -15844,7 +15847,7 @@
         <v>32495700</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5800</v>
       </c>
@@ -15862,7 +15865,7 @@
         <v>33645800</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5900</v>
       </c>
@@ -15880,7 +15883,7 @@
         <v>34815900</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6000</v>
       </c>
@@ -15898,7 +15901,7 @@
         <v>36006000</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6100</v>
       </c>
@@ -15916,7 +15919,7 @@
         <v>37216100</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6200</v>
       </c>
@@ -15934,7 +15937,7 @@
         <v>38446200</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6300</v>
       </c>
@@ -15952,7 +15955,7 @@
         <v>39696300</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>6400</v>
       </c>
@@ -15970,7 +15973,7 @@
         <v>40966400</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>6500</v>
       </c>
@@ -15988,7 +15991,7 @@
         <v>42256500</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6600</v>
       </c>
@@ -16006,7 +16009,7 @@
         <v>43566600</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>6700</v>
       </c>
@@ -16024,7 +16027,7 @@
         <v>44896700</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>6800</v>
       </c>
@@ -16042,7 +16045,7 @@
         <v>46246800</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>6900</v>
       </c>
@@ -16060,7 +16063,7 @@
         <v>47616900</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>7000</v>
       </c>
@@ -16078,7 +16081,7 @@
         <v>49007000</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>7100</v>
       </c>
@@ -16096,7 +16099,7 @@
         <v>50417100</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>7200</v>
       </c>
@@ -16114,7 +16117,7 @@
         <v>51847200</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7300</v>
       </c>
@@ -16132,7 +16135,7 @@
         <v>53297300</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>7400</v>
       </c>
@@ -16150,7 +16153,7 @@
         <v>54767400</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>7500</v>
       </c>
@@ -16168,7 +16171,7 @@
         <v>56257500</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>7600</v>
       </c>
@@ -16186,7 +16189,7 @@
         <v>57767600</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>7700</v>
       </c>
@@ -16204,7 +16207,7 @@
         <v>59297700</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>7800</v>
       </c>
@@ -16222,7 +16225,7 @@
         <v>60847800</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>7900</v>
       </c>
@@ -16240,7 +16243,7 @@
         <v>62417900</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>8000</v>
       </c>
@@ -16258,7 +16261,7 @@
         <v>64008000</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>8100</v>
       </c>
@@ -16276,7 +16279,7 @@
         <v>65618100</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>8200</v>
       </c>
@@ -16294,7 +16297,7 @@
         <v>67248200</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>8300</v>
       </c>
@@ -16312,7 +16315,7 @@
         <v>68898300</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>8400</v>
       </c>
@@ -16330,7 +16333,7 @@
         <v>70568400</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>8500</v>
       </c>
@@ -16348,7 +16351,7 @@
         <v>72258500</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>8600</v>
       </c>
@@ -16366,7 +16369,7 @@
         <v>73968600</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>8700</v>
       </c>
@@ -16384,7 +16387,7 @@
         <v>75698700</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8800</v>
       </c>
@@ -16402,7 +16405,7 @@
         <v>77448800</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>8900</v>
       </c>
@@ -16420,7 +16423,7 @@
         <v>79218900</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>9000</v>
       </c>
@@ -16438,7 +16441,7 @@
         <v>81009000</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>9100</v>
       </c>
@@ -16456,7 +16459,7 @@
         <v>82819100</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>9200</v>
       </c>
@@ -16474,7 +16477,7 @@
         <v>84649200</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>9300</v>
       </c>
@@ -16492,7 +16495,7 @@
         <v>86499300</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>9400</v>
       </c>
@@ -16510,7 +16513,7 @@
         <v>88369400</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>9500</v>
       </c>
@@ -16528,7 +16531,7 @@
         <v>90259500</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>9600</v>
       </c>
@@ -16546,7 +16549,7 @@
         <v>92169600</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>9700</v>
       </c>
@@ -16564,7 +16567,7 @@
         <v>94099700</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>9800</v>
       </c>
@@ -16582,7 +16585,7 @@
         <v>96049800</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9900</v>
       </c>
@@ -16600,7 +16603,7 @@
         <v>98019900</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10000</v>
       </c>
@@ -16633,7 +16636,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
